--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota/Desktop/grampus_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED0BFB2-A131-6D41-BEE7-1295906966FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2826D8D-879A-A24E-AA14-14B7FCF73633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" xr2:uid="{3FC80421-C819-C146-AF31-0621B81F3839}"/>
+    <workbookView xWindow="1220" yWindow="3100" windowWidth="28300" windowHeight="17440" activeTab="2" xr2:uid="{3FC80421-C819-C146-AF31-0621B81F3839}"/>
   </bookViews>
   <sheets>
     <sheet name="no1" sheetId="2" r:id="rId1"/>
@@ -405,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A439B-0538-CD4A-A960-6E7A90E9F8E7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -625,7 +625,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -647,7 +647,7 @@
         <v>35</v>
       </c>
       <c r="F1">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -655,7 +655,7 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>135</v>
@@ -798,7 +798,7 @@
         <v>200</v>
       </c>
       <c r="C9">
-        <v>325</v>
+        <v>1002</v>
       </c>
       <c r="D9">
         <v>1064</v>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF59D21-F683-E249-AF6F-412B63CE5C51}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -874,7 +874,7 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="C2">
         <v>103</v>
@@ -1017,7 +1017,7 @@
         <v>245</v>
       </c>
       <c r="C9">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="D9">
         <v>861</v>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota/Desktop/grampus_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A9318F-05C4-B84C-AFC4-357AE121EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D3E38-73FB-894A-BB6F-D01DAE819213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="3100" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{3FC80421-C819-C146-AF31-0621B81F3839}"/>
+    <workbookView xWindow="1220" yWindow="3100" windowWidth="28300" windowHeight="17440" xr2:uid="{3FC80421-C819-C146-AF31-0621B81F3839}"/>
   </bookViews>
   <sheets>
-    <sheet name="no1" sheetId="2" r:id="rId1"/>
-    <sheet name="no2" sheetId="1" r:id="rId2"/>
+    <sheet name="sample_1" sheetId="2" r:id="rId1"/>
+    <sheet name="sample_2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A439B-0538-CD4A-A960-6E7A90E9F8E7}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -467,7 +467,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:G2" si="0">10*10</f>
+        <f t="shared" ref="C2" si="0">10*10</f>
         <v>100</v>
       </c>
       <c r="D2" s="1">
@@ -508,7 +508,7 @@
         <v>180</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:G3" si="1">B3*2</f>
+        <f t="shared" ref="C3" si="1">B3*2</f>
         <v>360</v>
       </c>
       <c r="D3" s="1">
@@ -545,7 +545,7 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:G12" si="2">A4*2</f>
+        <f t="shared" ref="B4:C12" si="2">A4*2</f>
         <v>160</v>
       </c>
       <c r="C4">
@@ -559,7 +559,7 @@
         <v>320</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:K4" si="3">E4*2</f>
+        <f t="shared" ref="F4" si="3">E4*2</f>
         <v>640</v>
       </c>
       <c r="G4" s="1">
@@ -600,7 +600,7 @@
         <v>280</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:K5" si="4">E5*2</f>
+        <f t="shared" ref="F5" si="4">E5*2</f>
         <v>560</v>
       </c>
       <c r="G5" s="1">
@@ -641,7 +641,7 @@
         <v>240</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:K6" si="5">E6*2</f>
+        <f t="shared" ref="F6" si="5">E6*2</f>
         <v>480</v>
       </c>
       <c r="G6" s="1">
@@ -682,7 +682,7 @@
         <v>200</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:K7" si="6">E7*2</f>
+        <f t="shared" ref="F7" si="6">E7*2</f>
         <v>400</v>
       </c>
       <c r="G7" s="1">
@@ -723,7 +723,7 @@
         <v>160</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:K8" si="7">E8*2</f>
+        <f t="shared" ref="F8" si="7">E8*2</f>
         <v>320</v>
       </c>
       <c r="G8" s="1">
@@ -764,7 +764,7 @@
         <v>120</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:K9" si="8">E9*2</f>
+        <f t="shared" ref="F9" si="8">E9*2</f>
         <v>240</v>
       </c>
       <c r="G9" s="1">
@@ -805,7 +805,7 @@
         <v>80</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:K10" si="9">E10*2</f>
+        <f t="shared" ref="F10" si="9">E10*2</f>
         <v>160</v>
       </c>
       <c r="G10" s="1">
@@ -846,7 +846,7 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:K12" si="10">E11*2</f>
+        <f t="shared" ref="F11:F12" si="10">E11*2</f>
         <v>80</v>
       </c>
       <c r="G11" s="1">
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3584BE9-A073-684F-BF08-426D691ED091}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -975,7 +975,7 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:L2" si="0">B2*2</f>
+        <f t="shared" ref="C2:D2" si="0">B2*2</f>
         <v>400</v>
       </c>
       <c r="D2">
@@ -1012,7 +1012,7 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:L3" si="1">A3*2</f>
+        <f t="shared" ref="B3:D3" si="1">A3*2</f>
         <v>180</v>
       </c>
       <c r="C3">
@@ -1053,7 +1053,7 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:L4" si="2">A4*2</f>
+        <f t="shared" ref="B4:D4" si="2">A4*2</f>
         <v>160</v>
       </c>
       <c r="C4">
@@ -1094,7 +1094,7 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:L5" si="3">A5*2</f>
+        <f t="shared" ref="B5:D5" si="3">A5*2</f>
         <v>140</v>
       </c>
       <c r="C5">
@@ -1135,7 +1135,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:L6" si="4">A6*2</f>
+        <f t="shared" ref="B6:D6" si="4">A6*2</f>
         <v>120</v>
       </c>
       <c r="C6">
@@ -1176,7 +1176,7 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:L7" si="5">A7*2</f>
+        <f t="shared" ref="B7:D7" si="5">A7*2</f>
         <v>100</v>
       </c>
       <c r="C7">
@@ -1217,7 +1217,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:L8" si="6">A8*2</f>
+        <f t="shared" ref="B8:D8" si="6">A8*2</f>
         <v>80</v>
       </c>
       <c r="C8">
@@ -1258,7 +1258,7 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:L9" si="7">A9*2</f>
+        <f t="shared" ref="B9:D9" si="7">A9*2</f>
         <v>60</v>
       </c>
       <c r="C9">
@@ -1299,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:L10" si="8">A10*2</f>
+        <f t="shared" ref="B10:D10" si="8">A10*2</f>
         <v>40</v>
       </c>
       <c r="C10">
@@ -1340,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:L11" si="9">A11*2</f>
+        <f t="shared" ref="B11:D11" si="9">A11*2</f>
         <v>20</v>
       </c>
       <c r="C11">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:L12" si="10">A12*2</f>
+        <f t="shared" ref="B12:D12" si="10">A12*2</f>
         <v>0</v>
       </c>
       <c r="C12">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota/Desktop/grampus_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D3E38-73FB-894A-BB6F-D01DAE819213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343049A3-B5A1-2F4A-960D-B8CDD58F8EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="3100" windowWidth="28300" windowHeight="17440" xr2:uid="{3FC80421-C819-C146-AF31-0621B81F3839}"/>
+    <workbookView xWindow="1220" yWindow="3100" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{3FC80421-C819-C146-AF31-0621B81F3839}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_1" sheetId="2" r:id="rId1"/>
     <sheet name="sample_2" sheetId="1" r:id="rId2"/>
+    <sheet name="_sample_3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -414,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A439B-0538-CD4A-A960-6E7A90E9F8E7}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -922,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3584BE9-A073-684F-BF08-426D691ED091}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1424,4 +1425,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782F40AD-395E-2E46-80BE-3F1AAD5B8B23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>